--- a/spec/ConvSpec-5XX-v2.3.xlsx
+++ b/spec/ConvSpec-5XX-v2.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="14400" windowHeight="14660"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="14655"/>
   </bookViews>
   <sheets>
     <sheet name="marc5xx_v2" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="477">
   <si>
     <t>Instance - note - Note - rdfs:label</t>
   </si>
@@ -1119,9 +1119,6 @@
     <t xml:space="preserve">W - capture - Capture </t>
   </si>
   <si>
-    <t xml:space="preserve">W - awards </t>
-  </si>
-  <si>
     <t>## - rdfs:label  "concatenate $ab, separated by space"</t>
   </si>
   <si>
@@ -1341,9 +1338,6 @@
     <t>## - rdfs:label "Description based on: 'content of $a' "</t>
   </si>
   <si>
-    <t>Uniform</t>
-  </si>
-  <si>
     <t xml:space="preserve">I - supplementaryContent - SupplementaryContent </t>
   </si>
   <si>
@@ -1398,6 +1392,15 @@
     <t>I - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/descsource"</t>
   </si>
   <si>
+    <t xml:space="preserve">Instance - custodialHistory </t>
+  </si>
+  <si>
+    <t>Instance - note - Note  ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/binding"</t>
+  </si>
+  <si>
+    <t>Instance - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/action"</t>
+  </si>
+  <si>
     <t>587 - DATA SOURCE (R)</t>
   </si>
   <si>
@@ -1440,22 +1443,16 @@
     <t xml:space="preserve">507 - SCALE NOTE FOR VISUAL MATERIALS (NR)         </t>
   </si>
   <si>
-    <t>Fields 5XX - Notes - v2.1, 09/12/2022</t>
-  </si>
-  <si>
     <t>W - note - Note ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/lang" - rdfs:label</t>
   </si>
   <si>
     <t>Item - immediateAcquisition - ImmediateAcquisition</t>
   </si>
   <si>
-    <t xml:space="preserve">Item - custodialHistory </t>
-  </si>
-  <si>
-    <t>Item - note - Note  ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/binding"</t>
-  </si>
-  <si>
-    <t>Item - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/action"</t>
+    <t>W - note - Note ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnoteypte/award"</t>
+  </si>
+  <si>
+    <t>Fields 5XX - Notes - v2.3, 01/11/2023</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1595,9 +1592,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1951,21 +1945,21 @@
   <dimension ref="A1:E664"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C639" sqref="C639"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="21.7265625" style="1"/>
+    <col min="1" max="1" width="53.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="21.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1974,7 +1968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1982,12 +1976,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2003,7 +1997,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2011,7 +2005,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2020,29 +2014,29 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2050,7 +2044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2058,7 +2052,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2066,16 +2060,16 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2083,12 +2077,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2096,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2104,7 +2098,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,7 +2106,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2120,23 +2114,23 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2144,30 +2138,30 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2175,7 +2169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2183,7 +2177,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2185,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -2200,40 +2194,45 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>287</v>
       </c>
@@ -2241,30 +2240,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -2288,15 +2288,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -2304,21 +2304,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -2327,12 +2327,12 @@
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>288</v>
       </c>
@@ -2340,27 +2340,27 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>46</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>47</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>361</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>356</v>
       </c>
@@ -2424,15 +2424,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>49</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -2464,33 +2464,33 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>51</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -2506,12 +2506,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>52</v>
       </c>
@@ -2519,12 +2519,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>53</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
@@ -2540,21 +2540,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>54</v>
       </c>
@@ -2562,96 +2562,96 @@
         <v>328</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B103" s="4" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>64</v>
       </c>
@@ -2659,12 +2659,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>65</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>66</v>
       </c>
@@ -2680,12 +2680,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>67</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>14</v>
       </c>
@@ -2701,25 +2701,25 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>69</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>70</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>14</v>
       </c>
@@ -2743,12 +2743,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>71</v>
       </c>
@@ -2756,105 +2756,105 @@
         <v>302</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>86</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -2870,29 +2870,29 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B141" s="4" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>286</v>
       </c>
@@ -2900,22 +2900,22 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>89</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>14</v>
       </c>
@@ -2931,12 +2931,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>90</v>
       </c>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>283</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>91</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>92</v>
       </c>
@@ -2969,23 +2969,23 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>95</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>335</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>96</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -3025,21 +3025,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B162" s="4" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>97</v>
       </c>
@@ -3047,12 +3047,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>290</v>
       </c>
@@ -3060,47 +3060,47 @@
         <v>302</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="31" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>104</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>105</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>106</v>
       </c>
@@ -3124,15 +3124,15 @@
         <v>299</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>107</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>12</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -3156,21 +3156,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B182" s="4" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>108</v>
       </c>
@@ -3178,17 +3178,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>109</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="31" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>110</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>111</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="31" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>112</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>113</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>114</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>31</v>
       </c>
@@ -3244,12 +3244,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>115</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>116</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>12</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -3281,12 +3281,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>117</v>
       </c>
@@ -3294,12 +3294,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>290</v>
       </c>
@@ -3307,22 +3307,22 @@
         <v>302</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>119</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>14</v>
       </c>
@@ -3338,12 +3338,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>120</v>
       </c>
@@ -3352,12 +3352,12 @@
       </c>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>290</v>
       </c>
@@ -3365,22 +3365,22 @@
         <v>302</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>122</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>123</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>12</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>14</v>
       </c>
@@ -3412,12 +3412,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>124</v>
       </c>
@@ -3426,12 +3426,12 @@
       </c>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>125</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>14</v>
       </c>
@@ -3447,12 +3447,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>126</v>
       </c>
@@ -3460,166 +3460,166 @@
         <v>302</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="1:3" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A240" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C240" s="8"/>
+    </row>
+    <row r="241" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C240" s="8"/>
-    </row>
-    <row r="241" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="1:3" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C243" s="8"/>
+    </row>
+    <row r="244" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C243" s="8"/>
-    </row>
-    <row r="244" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="B244" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C244" s="11"/>
     </row>
-    <row r="245" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B245" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C245" s="11"/>
     </row>
-    <row r="246" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C246" s="11"/>
+    </row>
+    <row r="247" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C246" s="11"/>
-    </row>
-    <row r="247" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="9" t="s">
+      <c r="B247" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C247" s="11"/>
+    </row>
+    <row r="248" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C247" s="11"/>
-    </row>
-    <row r="248" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>310</v>
       </c>
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>339</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="252" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>340</v>
       </c>
@@ -3635,37 +3635,37 @@
         <v>302</v>
       </c>
     </row>
-    <row r="253" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>346</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="259" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>14</v>
       </c>
@@ -3681,392 +3681,392 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="261" spans="1:3" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="1:3" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C264" s="8"/>
+    </row>
+    <row r="265" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C264" s="8"/>
-    </row>
-    <row r="265" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="1:3" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C270" s="8"/>
+    </row>
+    <row r="271" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C270" s="8"/>
-    </row>
-    <row r="271" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B272" s="15" t="s">
+    <row r="272" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B272" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>310</v>
       </c>
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="1:3" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A287" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="1:3" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C290" s="8"/>
+    </row>
+    <row r="291" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C290" s="8"/>
-    </row>
-    <row r="291" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C297" s="8"/>
     </row>
-    <row r="298" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C298" s="8"/>
     </row>
-    <row r="299" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C299" s="8"/>
     </row>
-    <row r="300" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C300" s="8"/>
+    </row>
+    <row r="301" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="B300" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C300" s="8"/>
-    </row>
-    <row r="301" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C302" s="12"/>
+    </row>
+    <row r="303" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C302" s="12"/>
-    </row>
-    <row r="303" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>329</v>
       </c>
       <c r="C303" s="8"/>
     </row>
-    <row r="304" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C304" s="8"/>
     </row>
-    <row r="305" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>310</v>
       </c>
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
     </row>
-    <row r="307" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A307" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>302</v>
@@ -4074,104 +4074,104 @@
       <c r="C307" s="8"/>
       <c r="E307" s="9"/>
     </row>
-    <row r="308" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
     </row>
-    <row r="309" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
     </row>
-    <row r="310" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
     </row>
-    <row r="311" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
     </row>
-    <row r="315" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
     </row>
-    <row r="317" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
     </row>
-    <row r="319" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>283</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>136</v>
       </c>
@@ -4187,15 +4187,15 @@
         <v>303</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>138</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>139</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>140</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>141</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>142</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>143</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>14</v>
       </c>
@@ -4251,12 +4251,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>144</v>
       </c>
@@ -4264,12 +4264,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>145</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>132</v>
       </c>
@@ -4285,15 +4285,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>146</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>13</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>14</v>
       </c>
@@ -4317,12 +4317,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>147</v>
       </c>
@@ -4331,12 +4331,12 @@
       </c>
       <c r="D342" s="5"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>148</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>149</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>150</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>151</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>355</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="349" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>361</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="350" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>356</v>
       </c>
@@ -4392,15 +4392,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>107</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>12</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>13</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>14</v>
       </c>
@@ -4432,21 +4432,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="31" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C357" s="5"/>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357" s="5"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>293</v>
       </c>
@@ -4454,27 +4454,27 @@
         <v>302</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>155</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>156</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>157</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>158</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>159</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>160</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>161</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>162</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>163</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>12</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>13</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>14</v>
       </c>
@@ -4570,12 +4570,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>164</v>
       </c>
@@ -4583,150 +4583,150 @@
         <v>302</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>320</v>
       </c>
@@ -4734,27 +4734,27 @@
         <v>302</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>185</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>186</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>187</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>188</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>189</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>177</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>12</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>14</v>
       </c>
@@ -4818,12 +4818,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>190</v>
       </c>
@@ -4831,17 +4831,17 @@
         <v>322</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>40</v>
       </c>
@@ -4849,28 +4849,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>193</v>
       </c>
@@ -4878,20 +4878,20 @@
         <v>323</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>14</v>
       </c>
@@ -4899,31 +4899,31 @@
         <v>310</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B433" s="4" t="s">
+      <c r="B433" s="1" t="s">
         <v>473</v>
       </c>
       <c r="C433" s="5"/>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>197</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>12</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>14</v>
       </c>
@@ -4947,21 +4947,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B437" s="4" t="s">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>198</v>
       </c>
@@ -4969,12 +4969,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>199</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>14</v>
       </c>
@@ -4990,25 +4990,25 @@
         <v>310</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>201</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>14</v>
       </c>
@@ -5024,21 +5024,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B448" s="4" t="s">
+    <row r="448" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C448" s="6"/>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>202</v>
       </c>
@@ -5046,112 +5046,112 @@
         <v>302</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
         <v>219</v>
       </c>
@@ -5159,43 +5159,43 @@
         <v>307</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>222</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>223</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>224</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>225</v>
       </c>
@@ -5227,15 +5227,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>12</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>14</v>
       </c>
@@ -5251,21 +5251,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B486" s="4" t="s">
+    <row r="486" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C486" s="6"/>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
         <v>226</v>
       </c>
@@ -5273,12 +5273,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>286</v>
       </c>
@@ -5286,22 +5286,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>228</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>229</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>14</v>
       </c>
@@ -5325,26 +5325,26 @@
         <v>310</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B498" s="5" t="s">
-        <v>475</v>
+      <c r="B498" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="C498" s="5"/>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>296</v>
       </c>
@@ -5352,27 +5352,27 @@
         <v>302</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>231</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>37</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>12</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>13</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>14</v>
       </c>
@@ -5412,12 +5412,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
         <v>232</v>
       </c>
@@ -5425,71 +5425,71 @@
         <v>302</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B522" s="5" t="s">
-        <v>476</v>
+      <c r="B522" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="C522" s="5"/>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>239</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>37</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>12</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>13</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>14</v>
       </c>
@@ -5529,12 +5529,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
         <v>240</v>
       </c>
@@ -5542,72 +5542,72 @@
         <v>302</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>248</v>
       </c>
@@ -5615,76 +5615,76 @@
         <v>302</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="552" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B556" s="1" t="s">
+      <c r="B556" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C556" s="5"/>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D556" s="5"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>252</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>14</v>
       </c>
@@ -5700,25 +5700,25 @@
         <v>310</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>286</v>
       </c>
@@ -5726,22 +5726,22 @@
         <v>302</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="31" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>255</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>229</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>12</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>14</v>
       </c>
@@ -5773,26 +5773,27 @@
         <v>310</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B572" s="5" t="s">
-        <v>477</v>
+      <c r="B572" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="C572" s="5"/>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D572" s="5"/>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>296</v>
       </c>
@@ -5800,27 +5801,27 @@
         <v>302</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>257</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>258</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>259</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>260</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>261</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>262</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>263</v>
       </c>
@@ -5876,7 +5877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>264</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>265</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>266</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>267</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>162</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>163</v>
       </c>
@@ -5924,15 +5925,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>133</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>134</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>49</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>12</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>13</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>14</v>
       </c>
@@ -5980,21 +5981,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B599" s="4" t="s">
+    <row r="599" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B599" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C599" s="6"/>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="31" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
         <v>268</v>
       </c>
@@ -6002,55 +6003,55 @@
         <v>302</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>272</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>12</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>13</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>14</v>
       </c>
@@ -6082,20 +6083,21 @@
         <v>310</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B616" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B616" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C616" s="5"/>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>286</v>
       </c>
@@ -6103,38 +6105,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B622" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B622" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>439</v>
+        <v>12</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>14</v>
       </c>
@@ -6142,105 +6144,105 @@
         <v>310</v>
       </c>
     </row>
-    <row r="626" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B626" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="627" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A629" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B629" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C629" s="14"/>
+    </row>
+    <row r="630" spans="1:4" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A630" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B630" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C630" s="14"/>
+    </row>
+    <row r="631" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="628" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A629" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B629" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C629" s="14"/>
-    </row>
-    <row r="630" spans="1:3" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A630" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B630" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C630" s="14"/>
-    </row>
-    <row r="631" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C632" s="14"/>
     </row>
-    <row r="633" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C633" s="14"/>
     </row>
-    <row r="634" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A634" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C634" s="14"/>
     </row>
-    <row r="635" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B635" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B636" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C639" s="5"/>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="D639" s="5"/>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>286</v>
       </c>
@@ -6248,42 +6250,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B645" s="4"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>13</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>14</v>
       </c>
@@ -6299,82 +6301,82 @@
         <v>310</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>38</v>
       </c>
